--- a/api/LibroCurso.xlsx
+++ b/api/LibroCurso.xlsx
@@ -1282,7 +1282,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>

--- a/api/LibroCurso.xlsx
+++ b/api/LibroCurso.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19305" windowHeight="6630"/>
+    <workbookView windowWidth="26250" windowHeight="10800"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1282,7 +1282,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>

--- a/api/LibroCurso.xlsx
+++ b/api/LibroCurso.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26250" windowHeight="10800"/>
+    <workbookView windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -54,10 +54,10 @@
     <t>Periodo</t>
   </si>
   <si>
-    <t>I123A</t>
-  </si>
-  <si>
-    <t>Impacto Ambiental</t>
+    <t>C123O</t>
+  </si>
+  <si>
+    <t>Seminario de comunicacion oral y escrita</t>
   </si>
   <si>
     <t>2024-1</t>
@@ -1282,14 +1282,14 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="17.8571428571429" customWidth="1"/>
     <col min="2" max="2" width="17.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="20.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="40.8571428571429" customWidth="1"/>
     <col min="4" max="4" width="21.4285714285714" customWidth="1"/>
     <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
     <col min="6" max="6" width="27.2857142857143" customWidth="1"/>

--- a/api/LibroCurso.xlsx
+++ b/api/LibroCurso.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180"/>
+    <workbookView windowWidth="16275" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Codigo</t>
   </si>
@@ -115,6 +115,51 @@
   </si>
   <si>
     <t>esteban@gmail.com</t>
+  </si>
+  <si>
+    <t>alejandra</t>
+  </si>
+  <si>
+    <t>tocanchon</t>
+  </si>
+  <si>
+    <t>alejandra@gmail.com</t>
+  </si>
+  <si>
+    <t>Valentina</t>
+  </si>
+  <si>
+    <t>Londoño</t>
+  </si>
+  <si>
+    <t>valentina@gmail.com</t>
+  </si>
+  <si>
+    <t>Danha</t>
+  </si>
+  <si>
+    <t>Ospina</t>
+  </si>
+  <si>
+    <t>danis@gmail.com</t>
+  </si>
+  <si>
+    <t>salome</t>
+  </si>
+  <si>
+    <t>cortez</t>
+  </si>
+  <si>
+    <t>salome@gmail.com</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>Diaz</t>
+  </si>
+  <si>
+    <t>mane@gmail.com</t>
   </si>
   <si>
     <t>Fin</t>
@@ -733,7 +778,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -745,6 +790,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1279,10 +1327,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1332,7 +1380,7 @@
     <row r="3" spans="1:6">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
-        <v>1061701419</v>
+        <v>1006010600</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -1426,14 +1474,81 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="1">
+        <v>1006</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>1007</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>1008</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>1009</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>1010</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1443,6 +1558,11 @@
     <hyperlink ref="E6" r:id="rId4" display="oscar@gmail.com" tooltip="mailto:oscar@gmail.com"/>
     <hyperlink ref="E7" r:id="rId5" display="mario@gmail.com" tooltip="mailto:mario@gmail.com"/>
     <hyperlink ref="E8" r:id="rId6" display="esteban@gmail.com"/>
+    <hyperlink ref="E9" r:id="rId7" display="alejandra@gmail.com"/>
+    <hyperlink ref="E10" r:id="rId8" display="valentina@gmail.com"/>
+    <hyperlink ref="E11" r:id="rId9" display="danis@gmail.com"/>
+    <hyperlink ref="E12" r:id="rId10" display="salome@gmail.com"/>
+    <hyperlink ref="E13" r:id="rId11" display="mane@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/api/LibroCurso.xlsx
+++ b/api/LibroCurso.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16275" windowHeight="11580"/>
+    <workbookView windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -54,22 +54,22 @@
     <t>Periodo</t>
   </si>
   <si>
-    <t>C123O</t>
-  </si>
-  <si>
-    <t>Seminario de comunicacion oral y escrita</t>
+    <t>C321C</t>
+  </si>
+  <si>
+    <t>Ciencias de la computación 2</t>
   </si>
   <si>
     <t>2024-1</t>
   </si>
   <si>
-    <t>Sebastian</t>
-  </si>
-  <si>
-    <t>Hernandez</t>
-  </si>
-  <si>
-    <t>kevin@gmail.com</t>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Bolaños</t>
+  </si>
+  <si>
+    <t>kevinorozco@gmail.com</t>
   </si>
   <si>
     <t>Andres</t>
@@ -1329,8 +1329,8 @@
   <sheetPr/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1380,7 +1380,7 @@
     <row r="3" spans="1:6">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
-        <v>1006010600</v>
+        <v>1061701419</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -1436,7 +1436,7 @@
       <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="1"/>
@@ -1552,7 +1552,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" display="kevin@gmail.com"/>
+    <hyperlink ref="E3" r:id="rId1" display="kevinorozco@gmail.com" tooltip="mailto:kevinorozco@gmail.com"/>
     <hyperlink ref="E4" r:id="rId2" display="andres@gmail.com"/>
     <hyperlink ref="E5" r:id="rId3" display="laura@gmail.com" tooltip="mailto:laura@gmail.com"/>
     <hyperlink ref="E6" r:id="rId4" display="oscar@gmail.com" tooltip="mailto:oscar@gmail.com"/>
@@ -1562,7 +1562,7 @@
     <hyperlink ref="E10" r:id="rId8" display="valentina@gmail.com"/>
     <hyperlink ref="E11" r:id="rId9" display="danis@gmail.com"/>
     <hyperlink ref="E12" r:id="rId10" display="salome@gmail.com"/>
-    <hyperlink ref="E13" r:id="rId11" display="mane@gmail.com"/>
+    <hyperlink ref="E13" r:id="rId11" display="mane@gmail.com" tooltip="mailto:mane@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/api/LibroCurso.xlsx
+++ b/api/LibroCurso.xlsx
@@ -57,19 +57,19 @@
     <t>C321C</t>
   </si>
   <si>
-    <t>Ciencias de la computación 2</t>
+    <t>Ciencias de la computación</t>
   </si>
   <si>
     <t>2024-1</t>
   </si>
   <si>
-    <t>Kevin</t>
-  </si>
-  <si>
-    <t>Bolaños</t>
-  </si>
-  <si>
-    <t>kevinorozco@gmail.com</t>
+    <t>Sebastian</t>
+  </si>
+  <si>
+    <t>Hernandez</t>
+  </si>
+  <si>
+    <t>sebastian@gmail.com</t>
   </si>
   <si>
     <t>Andres</t>
@@ -1329,8 +1329,8 @@
   <sheetPr/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1339,7 +1339,7 @@
     <col min="2" max="2" width="17.2857142857143" customWidth="1"/>
     <col min="3" max="3" width="40.8571428571429" customWidth="1"/>
     <col min="4" max="4" width="21.4285714285714" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
     <col min="6" max="6" width="27.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1380,7 +1380,7 @@
     <row r="3" spans="1:6">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
-        <v>1061701419</v>
+        <v>1061700200</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -1552,7 +1552,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" display="kevinorozco@gmail.com" tooltip="mailto:kevinorozco@gmail.com"/>
+    <hyperlink ref="E3" r:id="rId1" display="sebastian@gmail.com" tooltip="mailto:sebastian@gmail.com"/>
     <hyperlink ref="E4" r:id="rId2" display="andres@gmail.com"/>
     <hyperlink ref="E5" r:id="rId3" display="laura@gmail.com" tooltip="mailto:laura@gmail.com"/>
     <hyperlink ref="E6" r:id="rId4" display="oscar@gmail.com" tooltip="mailto:oscar@gmail.com"/>
